--- a/EkonomTask/04_12_Kuznetsov/Kuznetsov_Michael_Pi19-4_DZ.xlsx
+++ b/EkonomTask/04_12_Kuznetsov/Kuznetsov_Michael_Pi19-4_DZ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpapa\Documents\EkonomTask\04_12_Kuznetsov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EAB13D-40E9-44A6-AD39-6C4418115DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0281DFED-A9E1-44AB-859B-58008DA2F1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
   <si>
     <t>F-тест: тест на короткую или длинную регрессию</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>корень(var(y6-y6^))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA268395-B52A-4101-BF3E-2C3B14AEFD96}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04C9264-82E2-4E0D-8750-FB6E7844D44F}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,7 +1605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -1617,8 +1623,11 @@
       <c r="C18" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1632,8 +1641,11 @@
         <f>B17/B18</f>
         <v>2.8000000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1641,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -1649,12 +1661,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -1671,7 +1683,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1687,7 +1699,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1695,7 +1707,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>80</v>
       </c>
